--- a/teaching/traditional_assets/database/data/canada/canada_advertising.xlsx
+++ b/teaching/traditional_assets/database/data/canada/canada_advertising.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.007000000000000034</v>
+        <v>-0.33445</v>
       </c>
       <c r="G2">
-        <v>-0.3561949685534592</v>
+        <v>-0.2466402940268776</v>
       </c>
       <c r="H2">
-        <v>-0.360998427672956</v>
+        <v>-1.677356002581152</v>
       </c>
       <c r="I2">
-        <v>-0.4784677191284485</v>
+        <v>-3.261608342454429</v>
       </c>
       <c r="J2">
-        <v>-0.4784677191284485</v>
+        <v>-3.261608342454429</v>
       </c>
       <c r="K2">
-        <v>720.49</v>
+        <v>-0.08100000000000007</v>
       </c>
       <c r="L2">
-        <v>5.664229559748429</v>
+        <v>-0.002272535981819714</v>
       </c>
       <c r="M2">
-        <v>138.5</v>
+        <v>54.7</v>
       </c>
       <c r="N2">
-        <v>0.4534442116291252</v>
+        <v>0.1400517192820749</v>
       </c>
       <c r="O2">
-        <v>0.1922302877208566</v>
+        <v>-675.3086419753081</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,82 +627,82 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
-        <v>138.5</v>
+        <v>54.7</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>138.903</v>
+        <v>131.52</v>
       </c>
       <c r="V2">
-        <v>0.454763619696176</v>
+        <v>0.3367386127966817</v>
       </c>
       <c r="W2">
-        <v>-2.923322683706071</v>
+        <v>-0.7481745482104822</v>
       </c>
       <c r="X2">
-        <v>0.07421098001940768</v>
+        <v>0.05752571435589975</v>
       </c>
       <c r="Y2">
-        <v>-2.997533663725478</v>
+        <v>-0.8057002625663819</v>
       </c>
       <c r="Z2">
-        <v>-0.0918890217431272</v>
+        <v>0.1189723851108021</v>
       </c>
       <c r="AA2">
-        <v>-0.4410543594311138</v>
+        <v>-0.5503431145575886</v>
       </c>
       <c r="AB2">
-        <v>0.06885272829001197</v>
+        <v>0.05687097587502608</v>
       </c>
       <c r="AC2">
-        <v>-0.5157915045751201</v>
+        <v>-0.6072029125044198</v>
       </c>
       <c r="AD2">
-        <v>11.881</v>
+        <v>4.214</v>
       </c>
       <c r="AE2">
-        <v>6.865469365693225</v>
+        <v>0.6125307505160124</v>
       </c>
       <c r="AF2">
-        <v>18.74646936569323</v>
+        <v>4.826530750516012</v>
       </c>
       <c r="AG2">
-        <v>-120.1565306343068</v>
+        <v>-126.693469249484</v>
       </c>
       <c r="AH2">
-        <v>0.05782619306219897</v>
+        <v>0.01220681107483317</v>
       </c>
       <c r="AI2">
-        <v>0.04183765639876411</v>
+        <v>0.01449249648271065</v>
       </c>
       <c r="AJ2">
-        <v>-0.6485010834784959</v>
+        <v>-0.4801240522950001</v>
       </c>
       <c r="AK2">
-        <v>-0.3886379089409658</v>
+        <v>-0.6287001308410503</v>
       </c>
       <c r="AL2">
-        <v>10.097</v>
+        <v>1.569</v>
       </c>
       <c r="AM2">
-        <v>3.226999999999999</v>
+        <v>-5.031</v>
       </c>
       <c r="AN2">
-        <v>-0.2234194591748467</v>
+        <v>-0.03676175521242258</v>
       </c>
       <c r="AO2">
-        <v>-6.145389719718728</v>
+        <v>-74.36902485659657</v>
       </c>
       <c r="AP2">
-        <v>2.25951578912909</v>
+        <v>1.105238325477484</v>
       </c>
       <c r="AQ2">
-        <v>-19.22838549736598</v>
+        <v>23.19320214669052</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aimia Inc. (TSX:AIM)</t>
+          <t>Aquarius AI Inc. (TSXV:AQUA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -721,35 +721,32 @@
           <t>Advertising</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.4370000000000001</v>
-      </c>
       <c r="G3">
-        <v>-0.4356725146198831</v>
+        <v>173.1343283582089</v>
       </c>
       <c r="H3">
-        <v>-0.4356725146198831</v>
+        <v>195.5223880597015</v>
       </c>
       <c r="I3">
-        <v>-0.4607964991820361</v>
+        <v>30.74626865671642</v>
       </c>
       <c r="J3">
-        <v>-0.4607964991820361</v>
+        <v>30.74626865671642</v>
       </c>
       <c r="K3">
-        <v>741.3</v>
+        <v>6.97</v>
       </c>
       <c r="L3">
-        <v>7.22514619883041</v>
+        <v>-104.0298507462687</v>
       </c>
       <c r="M3">
-        <v>138.5</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.4589131875414181</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.1868339403750169</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -761,79 +758,76 @@
         <v>-0</v>
       </c>
       <c r="S3">
-        <v>138.5</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>138.1</v>
+        <v>0.001</v>
       </c>
       <c r="V3">
-        <v>0.4575878064943671</v>
+        <v>0.00072992700729927</v>
       </c>
       <c r="W3">
-        <v>-5.523845007451565</v>
+        <v>-0.6766990291262135</v>
       </c>
       <c r="X3">
-        <v>0.07014205241591945</v>
+        <v>0.05769865125115618</v>
       </c>
       <c r="Y3">
-        <v>-5.593987059867485</v>
+        <v>-0.7343976803773696</v>
       </c>
       <c r="Z3">
-        <v>-0.07348194277936393</v>
+        <v>0.04437086092715228</v>
       </c>
       <c r="AA3">
-        <v>0.03386022198582559</v>
+        <v>1.364238410596025</v>
       </c>
       <c r="AB3">
-        <v>0.06885272829001197</v>
+        <v>0.05882138435005831</v>
       </c>
       <c r="AC3">
-        <v>-0.03499250630418638</v>
+        <v>1.305417026245967</v>
       </c>
       <c r="AD3">
-        <v>2.87</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE3">
-        <v>6.638604080384518</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>9.508604080384519</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AG3">
-        <v>-128.5913959196155</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.03054398097499822</v>
+        <v>0.04861111111111111</v>
       </c>
       <c r="AI3">
-        <v>0.02152687086587539</v>
+        <v>-0.03867403314917128</v>
       </c>
       <c r="AJ3">
-        <v>-0.74240766850091</v>
+        <v>0.04794996525364837</v>
       </c>
       <c r="AK3">
-        <v>-0.4235433192320504</v>
+        <v>-0.03810049696300387</v>
       </c>
       <c r="AL3">
-        <v>9.59</v>
+        <v>0.472</v>
       </c>
       <c r="AM3">
-        <v>2.72</v>
+        <v>0.472</v>
       </c>
       <c r="AN3">
-        <v>-0.07077681874229347</v>
+        <v>-0.04216867469879518</v>
       </c>
       <c r="AO3">
-        <v>-5.036496350364963</v>
+        <v>-4.364406779661017</v>
       </c>
       <c r="AP3">
-        <v>3.17118115708053</v>
+        <v>-0.04156626506024097</v>
       </c>
       <c r="AQ3">
-        <v>-17.75735294117647</v>
+        <v>-4.364406779661017</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Snipp Interactive Inc. (TSXV:SPN)</t>
+          <t>Aimia Inc. (TSX:AIM)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,34 +847,34 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.423</v>
+        <v>-0.5870000000000001</v>
       </c>
       <c r="G4">
-        <v>-0.1952830188679245</v>
+        <v>0.2455357142857143</v>
       </c>
       <c r="H4">
-        <v>-0.1952830188679245</v>
+        <v>-1.959821428571429</v>
       </c>
       <c r="I4">
-        <v>-0.2209435020054828</v>
+        <v>-4.974431741428293</v>
       </c>
       <c r="J4">
-        <v>-0.2209435020054828</v>
+        <v>-4.974431741428293</v>
       </c>
       <c r="K4">
-        <v>-2.51</v>
+        <v>-0.826</v>
       </c>
       <c r="L4">
-        <v>-0.2367924528301887</v>
+        <v>-0.036875</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>54.7</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.1802306425041186</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-66.22276029055691</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -892,76 +886,79 @@
         <v>0</v>
       </c>
       <c r="S4">
+        <v>54.7</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>129.2</v>
+      </c>
+      <c r="V4">
+        <v>0.4257001647446458</v>
+      </c>
+      <c r="W4">
+        <v>-0.001911152244331328</v>
+      </c>
+      <c r="X4">
+        <v>0.05599782919353891</v>
+      </c>
+      <c r="Y4">
+        <v>-0.05790898143787023</v>
+      </c>
+      <c r="Z4">
+        <v>0.07531402712152187</v>
+      </c>
+      <c r="AA4">
+        <v>-0.3746444870880898</v>
+      </c>
+      <c r="AB4">
+        <v>0.05594283402232577</v>
+      </c>
+      <c r="AC4">
+        <v>-0.4305873211104155</v>
+      </c>
+      <c r="AD4">
         <v>0</v>
       </c>
-      <c r="U4">
-        <v>0.803</v>
-      </c>
-      <c r="V4">
-        <v>0.3088461538461539</v>
-      </c>
-      <c r="W4">
-        <v>-0.2540485829959514</v>
-      </c>
-      <c r="X4">
-        <v>0.07421098001940768</v>
-      </c>
-      <c r="Y4">
-        <v>-0.3282595630153591</v>
-      </c>
-      <c r="Z4">
-        <v>1.99623141403891</v>
-      </c>
-      <c r="AA4">
-        <v>-0.4410543594311138</v>
-      </c>
-      <c r="AB4">
-        <v>0.07473714514400633</v>
-      </c>
-      <c r="AC4">
-        <v>-0.5157915045751201</v>
-      </c>
-      <c r="AD4">
-        <v>0.221</v>
-      </c>
       <c r="AE4">
-        <v>0.1500056062905871</v>
+        <v>0.4513550399688048</v>
       </c>
       <c r="AF4">
-        <v>0.3710056062905871</v>
+        <v>0.4513550399688048</v>
       </c>
       <c r="AG4">
-        <v>-0.4319943937094129</v>
+        <v>-128.7486449600312</v>
       </c>
       <c r="AH4">
-        <v>0.1248754312361603</v>
+        <v>0.00148495814374459</v>
       </c>
       <c r="AI4">
-        <v>0.04755868986831839</v>
+        <v>0.001357249138000226</v>
       </c>
       <c r="AJ4">
-        <v>-0.1992588914235081</v>
+        <v>-0.7367533426598267</v>
       </c>
       <c r="AK4">
-        <v>-0.06173107282467569</v>
+        <v>-0.6331339416682301</v>
       </c>
       <c r="AL4">
-        <v>0.001</v>
+        <v>1.05</v>
       </c>
       <c r="AM4">
-        <v>0.001</v>
+        <v>-5.55</v>
       </c>
       <c r="AN4">
-        <v>-0.1103896103896104</v>
+        <v>-0</v>
       </c>
       <c r="AO4">
-        <v>-2450</v>
+        <v>-106.4761904761905</v>
       </c>
       <c r="AP4">
-        <v>0.2157814154392672</v>
+        <v>1.17217918333559</v>
       </c>
       <c r="AQ4">
-        <v>-2450</v>
+        <v>20.14414414414414</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +969,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aquarius AI Inc. (TSXV:AQUA)</t>
+          <t>Snipp Interactive Inc. (TSXV:SPN)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -980,23 +977,26 @@
           <t>Advertising</t>
         </is>
       </c>
+      <c r="D5">
+        <v>-0.0819</v>
+      </c>
       <c r="G5">
-        <v>0.1044285714285714</v>
+        <v>-0.3180661577608143</v>
       </c>
       <c r="H5">
-        <v>0.06078571428571428</v>
+        <v>-0.3180661577608143</v>
       </c>
       <c r="I5">
-        <v>-0.8029551382716875</v>
+        <v>-0.339851799250565</v>
       </c>
       <c r="J5">
-        <v>-0.8029551382716875</v>
+        <v>-0.339851799250565</v>
       </c>
       <c r="K5">
-        <v>-18.3</v>
+        <v>-6.09</v>
       </c>
       <c r="L5">
-        <v>-1.307142857142857</v>
+        <v>-0.7748091603053434</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1020,73 +1020,183 @@
         <v>0</v>
       </c>
       <c r="U5">
+        <v>1.37</v>
+      </c>
+      <c r="V5">
+        <v>0.1234234234234234</v>
+      </c>
+      <c r="W5">
+        <v>-0.819650067294751</v>
+      </c>
+      <c r="X5">
+        <v>0.05735277746064332</v>
+      </c>
+      <c r="Y5">
+        <v>-0.8770028447553944</v>
+      </c>
+      <c r="Z5">
+        <v>2.136348089455879</v>
+      </c>
+      <c r="AA5">
+        <v>-0.7260417420270874</v>
+      </c>
+      <c r="AB5">
+        <v>0.05777676187133657</v>
+      </c>
+      <c r="AC5">
+        <v>-0.783818503898424</v>
+      </c>
+      <c r="AD5">
+        <v>0.294</v>
+      </c>
+      <c r="AE5">
+        <v>0.1611757105472076</v>
+      </c>
+      <c r="AF5">
+        <v>0.4551757105472075</v>
+      </c>
+      <c r="AG5">
+        <v>-0.9148242894527926</v>
+      </c>
+      <c r="AH5">
+        <v>0.03939150056642905</v>
+      </c>
+      <c r="AI5">
+        <v>0.2352115666119528</v>
+      </c>
+      <c r="AJ5">
+        <v>-0.08981919560852061</v>
+      </c>
+      <c r="AK5">
+        <v>-1.618654645591639</v>
+      </c>
+      <c r="AL5">
+        <v>0.025</v>
+      </c>
+      <c r="AM5">
+        <v>0.025</v>
+      </c>
+      <c r="AN5">
+        <v>-0.1039236479321315</v>
+      </c>
+      <c r="AO5">
+        <v>-109.2</v>
+      </c>
+      <c r="AP5">
+        <v>0.3233737325743347</v>
+      </c>
+      <c r="AQ5">
+        <v>-109.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wishpond Technologies Ltd. (TSXV:WISH)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Advertising</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>-0.03504587155963302</v>
+      </c>
+      <c r="H6">
+        <v>-0.05247706422018348</v>
+      </c>
+      <c r="I6">
+        <v>-0.01743119266055046</v>
+      </c>
+      <c r="J6">
+        <v>-0.01743119266055046</v>
+      </c>
+      <c r="K6">
+        <v>-0.135</v>
+      </c>
+      <c r="L6">
+        <v>-0.02477064220183486</v>
+      </c>
+      <c r="M6">
+        <v>-0</v>
+      </c>
+      <c r="N6">
+        <v>-0</v>
+      </c>
+      <c r="O6">
         <v>0</v>
       </c>
-      <c r="V5">
+      <c r="P6">
+        <v>-0</v>
+      </c>
+      <c r="Q6">
+        <v>-0</v>
+      </c>
+      <c r="R6">
         <v>0</v>
       </c>
-      <c r="W5">
-        <v>-2.923322683706071</v>
-      </c>
-      <c r="X5">
-        <v>0.3809914805887515</v>
-      </c>
-      <c r="Y5">
-        <v>-3.304314164294822</v>
-      </c>
-      <c r="Z5">
-        <v>2.098051011625653</v>
-      </c>
-      <c r="AA5">
-        <v>-1.68464084014093</v>
-      </c>
-      <c r="AB5">
-        <v>0.06499360559340166</v>
-      </c>
-      <c r="AC5">
-        <v>-1.749634445734332</v>
-      </c>
-      <c r="AD5">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="AE5">
-        <v>0.07685967901812066</v>
-      </c>
-      <c r="AF5">
-        <v>8.86685967901812</v>
-      </c>
-      <c r="AG5">
-        <v>8.86685967901812</v>
-      </c>
-      <c r="AH5">
-        <v>0.8950222337152276</v>
-      </c>
-      <c r="AI5">
-        <v>-6.187014313394803</v>
-      </c>
-      <c r="AJ5">
-        <v>0.8950222337152276</v>
-      </c>
-      <c r="AK5">
-        <v>-6.187014313394803</v>
-      </c>
-      <c r="AL5">
-        <v>0.506</v>
-      </c>
-      <c r="AM5">
-        <v>0.506</v>
-      </c>
-      <c r="AN5">
-        <v>-0.8272162619988707</v>
-      </c>
-      <c r="AO5">
-        <v>-22.33201581027668</v>
-      </c>
-      <c r="AP5">
-        <v>-0.8344494333726821</v>
-      </c>
-      <c r="AQ5">
-        <v>-22.33201581027668</v>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0.949</v>
+      </c>
+      <c r="V6">
+        <v>0.01272117962466488</v>
+      </c>
+      <c r="X6">
+        <v>0.05771626328398444</v>
+      </c>
+      <c r="AB6">
+        <v>0.0559651898787156</v>
+      </c>
+      <c r="AD6">
+        <v>3.85</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>3.85</v>
+      </c>
+      <c r="AG6">
+        <v>2.901</v>
+      </c>
+      <c r="AH6">
+        <v>0.04907584448693436</v>
+      </c>
+      <c r="AI6">
+        <v>10.69444444444445</v>
+      </c>
+      <c r="AJ6">
+        <v>0.03743177507387002</v>
+      </c>
+      <c r="AK6">
+        <v>-4.925297113752123</v>
+      </c>
+      <c r="AL6">
+        <v>0.022</v>
+      </c>
+      <c r="AM6">
+        <v>0.022</v>
+      </c>
+      <c r="AN6">
+        <v>-12.66447368421053</v>
+      </c>
+      <c r="AO6">
+        <v>-4.318181818181818</v>
+      </c>
+      <c r="AP6">
+        <v>-9.542763157894738</v>
+      </c>
+      <c r="AQ6">
+        <v>-4.318181818181818</v>
       </c>
     </row>
   </sheetData>
